--- a/Development/Modeling/Billing table list.xlsx
+++ b/Development/Modeling/Billing table list.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="115">
   <si>
     <t>Frequency types</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>Amount to be fined</t>
+  </si>
+  <si>
+    <t>Fine</t>
   </si>
 </sst>
 </file>
@@ -820,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1422,7 +1425,7 @@
         <v>16</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
         <v>99</v>

--- a/Development/Modeling/Billing table list.xlsx
+++ b/Development/Modeling/Billing table list.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="115">
   <si>
     <t>Frequency types</t>
   </si>
@@ -821,10 +821,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1453,135 +1453,146 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="1" t="s">
+    <row r="64" spans="1:5">
+      <c r="B64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="B66" t="s">
-        <v>30</v>
-      </c>
-      <c r="C66" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="B67" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67" t="s">
-        <v>103</v>
+        <v>19</v>
+      </c>
+      <c r="D67" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="B68" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E68" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="B69" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C69" t="s">
         <v>19</v>
       </c>
       <c r="E69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="B70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="B71" t="s">
         <v>61</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>21</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:5">
+      <c r="A73" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E73" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="B73" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="B74" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C74" t="s">
         <v>19</v>
       </c>
-      <c r="E74" t="s">
-        <v>110</v>
+      <c r="D74" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="B75" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C75" t="s">
         <v>19</v>
       </c>
       <c r="E75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="B76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C76" t="s">
         <v>19</v>
       </c>
       <c r="E76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="B77" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="B78" t="s">
         <v>10</v>
       </c>
-      <c r="C77" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1590,7 +1601,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20">
       <formula1>Sheet2!A2:A8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E68">
       <formula1>Sheet2!C2:C5</formula1>
     </dataValidation>
   </dataValidations>
